--- a/data/politisktengagemang_bakgrund.xlsx
+++ b/data/politisktengagemang_bakgrund.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://svenskidrott-my.sharepoint.com/personal/william_lind_rfsisu_se/Documents/Dokument/GitHub/svenskstatistik-demokrati/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_16FA8B94E4BE2BDD3DA466294BB2DEDEC5A2CB88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CA30530-4ED2-4D01-AF77-B9C45E56D826}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_16FA8B94E4BE2BDD3DA466294BB2DEDEC5A2CB88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{577C4316-F324-4E67-BBF2-F3FA152D6938}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="000005XG" sheetId="2" r:id="rId1"/>
@@ -133,14 +133,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,15 +445,16 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="9.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -492,14 +492,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2">
@@ -530,14 +530,14 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2">
@@ -568,14 +568,14 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2">
@@ -606,14 +606,14 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2">
@@ -644,14 +644,14 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2">
@@ -682,14 +682,14 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="2">
@@ -720,14 +720,14 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2">
@@ -758,14 +758,14 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="2">
@@ -796,14 +796,14 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="2">
@@ -834,14 +834,14 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2">
@@ -872,14 +872,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="2">
@@ -910,14 +910,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="2">
@@ -948,14 +948,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2">
@@ -986,14 +986,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="2">
@@ -1024,14 +1024,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2">
@@ -1062,14 +1062,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2">
@@ -1100,14 +1100,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="2">
@@ -1138,14 +1138,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2">
@@ -1176,14 +1176,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2">
@@ -1214,14 +1214,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="2">
@@ -1252,14 +1252,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="2">
@@ -1290,14 +1290,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2">
@@ -1328,14 +1328,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="2">
@@ -1366,14 +1366,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="2">
@@ -1404,14 +1404,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="2">
@@ -1442,14 +1442,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="2">
@@ -1480,14 +1480,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="2">
@@ -1518,14 +1518,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="2">
@@ -1556,14 +1556,14 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="2">
@@ -1594,14 +1594,14 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="2">
@@ -1632,14 +1632,14 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="2">
@@ -1670,14 +1670,14 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="2">
@@ -1708,14 +1708,14 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="2">
@@ -1746,14 +1746,14 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="2">
@@ -1784,14 +1784,14 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="2">
@@ -1822,14 +1822,14 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="2">
@@ -1860,14 +1860,14 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="2">
@@ -1898,14 +1898,14 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="2">
@@ -1936,14 +1936,14 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="2">
@@ -1974,14 +1974,14 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="2">
@@ -2012,14 +2012,14 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="2">
@@ -2050,14 +2050,14 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="2">
@@ -2088,14 +2088,14 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="2">
@@ -2126,14 +2126,14 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="2">
@@ -2164,14 +2164,14 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2">
